--- a/Wildberries/WB_Fakers.old.xlsx
+++ b/Wildberries/WB_Fakers.old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Wildberries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F9B55-9826-4474-8348-8B79CED68E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5669DAE-58E7-4CF2-AF49-E33F5AE3469D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" firstSheet="14" activeTab="20" xr2:uid="{6FEB75CA-B673-4011-9DD5-AB3BD64A6505}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" firstSheet="2" activeTab="9" xr2:uid="{6FEB75CA-B673-4011-9DD5-AB3BD64A6505}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,8 +2214,8 @@
   <sheetPr codeName="Лист12"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4432,7 +4432,7 @@
   <sheetPr codeName="Лист21"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
